--- a/public/uploads/KPI aire.xlsx
+++ b/public/uploads/KPI aire.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Contrato info completa\KPI contrtato\KPI Septiembre 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Contrato info completa\KPI contrtato\Octubre 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="80">
   <si>
     <t>KPI AIRE ACONDICIONADO</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>A/A  OF .202 EDIF.900 LA JUNTA</t>
+  </si>
+  <si>
+    <t>Atención equipo en polvorin barahora</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -442,6 +445,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -451,9 +457,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -461,6 +464,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -850,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92:E94"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,11 +874,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -887,8 +896,8 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="8">
-        <v>44795</v>
+      <c r="B4" s="9">
+        <v>44826</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>16</v>
@@ -899,7 +908,7 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="8"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
@@ -909,7 +918,7 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
@@ -919,7 +928,7 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="8"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
@@ -929,8 +938,8 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="8">
-        <v>44796</v>
+      <c r="B8" s="9">
+        <v>44827</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>64</v>
@@ -941,7 +950,7 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="9"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
         <v>65</v>
       </c>
@@ -951,7 +960,7 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="9"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="5" t="s">
         <v>66</v>
       </c>
@@ -961,7 +970,7 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="9"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="5" t="s">
         <v>67</v>
       </c>
@@ -971,7 +980,7 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="9"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
@@ -981,7 +990,7 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="9"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
@@ -991,8 +1000,8 @@
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="8">
-        <v>44797</v>
+      <c r="B14" s="9">
+        <v>44830</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>45</v>
@@ -1003,7 +1012,7 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="9"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="5" t="s">
         <v>46</v>
       </c>
@@ -1013,7 +1022,7 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="9"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="5" t="s">
         <v>47</v>
       </c>
@@ -1023,7 +1032,7 @@
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="9"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="5" t="s">
         <v>48</v>
       </c>
@@ -1033,8 +1042,8 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="8">
-        <v>44798</v>
+      <c r="B18" s="9">
+        <v>44831</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>20</v>
@@ -1045,7 +1054,7 @@
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
@@ -1055,7 +1064,7 @@
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="5" t="s">
         <v>68</v>
       </c>
@@ -1065,7 +1074,7 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="5" t="s">
         <v>69</v>
       </c>
@@ -1075,7 +1084,7 @@
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="9"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="5" t="s">
         <v>70</v>
       </c>
@@ -1085,7 +1094,7 @@
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="5" t="s">
         <v>71</v>
       </c>
@@ -1095,8 +1104,8 @@
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="8">
-        <v>44799</v>
+      <c r="B24" s="9">
+        <v>44832</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>11</v>
@@ -1107,7 +1116,7 @@
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="9"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="5" t="s">
         <v>12</v>
       </c>
@@ -1117,7 +1126,7 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="9"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="5" t="s">
         <v>13</v>
       </c>
@@ -1127,7 +1136,7 @@
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="9"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="5" t="s">
         <v>14</v>
       </c>
@@ -1137,7 +1146,7 @@
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="9"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="5" t="s">
         <v>15</v>
       </c>
@@ -1147,8 +1156,8 @@
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="8">
-        <v>44802</v>
+      <c r="B29" s="9">
+        <v>44833</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>72</v>
@@ -1159,7 +1168,7 @@
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="9"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="5" t="s">
         <v>73</v>
       </c>
@@ -1169,7 +1178,7 @@
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="9"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="5" t="s">
         <v>74</v>
       </c>
@@ -1179,7 +1188,7 @@
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="9"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="5" t="s">
         <v>75</v>
       </c>
@@ -1189,8 +1198,8 @@
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="8">
-        <v>44803</v>
+      <c r="B33" s="9">
+        <v>44834</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>20</v>
@@ -1201,7 +1210,7 @@
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="9"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="5" t="s">
         <v>21</v>
       </c>
@@ -1211,7 +1220,7 @@
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="9"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="5" t="s">
         <v>68</v>
       </c>
@@ -1221,7 +1230,7 @@
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="9"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="5" t="s">
         <v>69</v>
       </c>
@@ -1231,7 +1240,7 @@
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="9"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="5" t="s">
         <v>70</v>
       </c>
@@ -1241,7 +1250,7 @@
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="9"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="5" t="s">
         <v>71</v>
       </c>
@@ -1251,8 +1260,8 @@
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="10">
-        <v>44804</v>
+      <c r="B39" s="11">
+        <v>44837</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>59</v>
@@ -1263,7 +1272,7 @@
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="9"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="5" t="s">
         <v>77</v>
       </c>
@@ -1273,7 +1282,7 @@
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="9"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="5" t="s">
         <v>60</v>
       </c>
@@ -1283,7 +1292,7 @@
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="9"/>
+      <c r="B42" s="10"/>
       <c r="C42" s="5" t="s">
         <v>61</v>
       </c>
@@ -1293,7 +1302,7 @@
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="9"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="5" t="s">
         <v>62</v>
       </c>
@@ -1303,7 +1312,7 @@
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="9"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="5" t="s">
         <v>63</v>
       </c>
@@ -1313,7 +1322,7 @@
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="9"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="5" t="s">
         <v>78</v>
       </c>
@@ -1323,8 +1332,8 @@
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="8">
-        <v>44805</v>
+      <c r="B46" s="9">
+        <v>44838</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>16</v>
@@ -1335,7 +1344,7 @@
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="9"/>
+      <c r="B47" s="10"/>
       <c r="C47" s="5" t="s">
         <v>17</v>
       </c>
@@ -1345,7 +1354,7 @@
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="9"/>
+      <c r="B48" s="10"/>
       <c r="C48" s="5" t="s">
         <v>18</v>
       </c>
@@ -1355,7 +1364,7 @@
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="9"/>
+      <c r="B49" s="10"/>
       <c r="C49" s="5" t="s">
         <v>19</v>
       </c>
@@ -1365,8 +1374,8 @@
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="8">
-        <v>44806</v>
+      <c r="B50" s="9">
+        <v>44839</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>5</v>
@@ -1377,7 +1386,7 @@
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="9"/>
+      <c r="B51" s="10"/>
       <c r="C51" s="5" t="s">
         <v>6</v>
       </c>
@@ -1387,7 +1396,7 @@
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="9"/>
+      <c r="B52" s="10"/>
       <c r="C52" s="5" t="s">
         <v>7</v>
       </c>
@@ -1397,7 +1406,7 @@
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="9"/>
+      <c r="B53" s="10"/>
       <c r="C53" s="5" t="s">
         <v>8</v>
       </c>
@@ -1407,28 +1416,26 @@
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="9"/>
+      <c r="B54" s="10"/>
       <c r="C54" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="1"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="15" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="9"/>
+      <c r="B55" s="10"/>
       <c r="C55" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="1"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="16"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="7">
-        <v>44809</v>
+        <v>44840</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>76</v>
@@ -1440,7 +1447,7 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
-        <v>44810</v>
+        <v>44841</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>20</v>
@@ -1501,8 +1508,8 @@
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="8">
-        <v>44811</v>
+      <c r="B63" s="9">
+        <v>44845</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>24</v>
@@ -1513,7 +1520,7 @@
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B64" s="9"/>
+      <c r="B64" s="10"/>
       <c r="C64" s="5" t="s">
         <v>25</v>
       </c>
@@ -1523,7 +1530,7 @@
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="9"/>
+      <c r="B65" s="10"/>
       <c r="C65" s="5" t="s">
         <v>26</v>
       </c>
@@ -1533,7 +1540,7 @@
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B66" s="9"/>
+      <c r="B66" s="10"/>
       <c r="C66" s="5" t="s">
         <v>27</v>
       </c>
@@ -1543,7 +1550,7 @@
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B67" s="9"/>
+      <c r="B67" s="10"/>
       <c r="C67" s="5" t="s">
         <v>28</v>
       </c>
@@ -1553,7 +1560,7 @@
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B68" s="9"/>
+      <c r="B68" s="10"/>
       <c r="C68" s="5" t="s">
         <v>29</v>
       </c>
@@ -1563,8 +1570,8 @@
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B69" s="8">
-        <v>44812</v>
+      <c r="B69" s="9">
+        <v>44846</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>38</v>
@@ -1575,7 +1582,7 @@
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B70" s="9"/>
+      <c r="B70" s="10"/>
       <c r="C70" s="5" t="s">
         <v>39</v>
       </c>
@@ -1585,7 +1592,7 @@
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B71" s="9"/>
+      <c r="B71" s="10"/>
       <c r="C71" s="5" t="s">
         <v>40</v>
       </c>
@@ -1595,7 +1602,7 @@
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="9"/>
+      <c r="B72" s="10"/>
       <c r="C72" s="5" t="s">
         <v>41</v>
       </c>
@@ -1605,7 +1612,7 @@
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B73" s="9"/>
+      <c r="B73" s="10"/>
       <c r="C73" s="5" t="s">
         <v>42</v>
       </c>
@@ -1615,7 +1622,7 @@
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B74" s="9"/>
+      <c r="B74" s="10"/>
       <c r="C74" s="5" t="s">
         <v>43</v>
       </c>
@@ -1625,7 +1632,7 @@
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B75" s="9"/>
+      <c r="B75" s="10"/>
       <c r="C75" s="5" t="s">
         <v>44</v>
       </c>
@@ -1635,8 +1642,8 @@
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B76" s="8">
-        <v>44813</v>
+      <c r="B76" s="9">
+        <v>44847</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>30</v>
@@ -1647,7 +1654,7 @@
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="9"/>
+      <c r="B77" s="10"/>
       <c r="C77" s="5" t="s">
         <v>31</v>
       </c>
@@ -1657,7 +1664,7 @@
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B78" s="9"/>
+      <c r="B78" s="10"/>
       <c r="C78" s="4" t="s">
         <v>32</v>
       </c>
@@ -1667,7 +1674,7 @@
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B79" s="9"/>
+      <c r="B79" s="10"/>
       <c r="C79" s="4" t="s">
         <v>33</v>
       </c>
@@ -1677,7 +1684,7 @@
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B80" s="9"/>
+      <c r="B80" s="10"/>
       <c r="C80" s="4" t="s">
         <v>34</v>
       </c>
@@ -1687,7 +1694,7 @@
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B81" s="9"/>
+      <c r="B81" s="10"/>
       <c r="C81" s="4" t="s">
         <v>35</v>
       </c>
@@ -1697,7 +1704,7 @@
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B82" s="9"/>
+      <c r="B82" s="10"/>
       <c r="C82" s="4" t="s">
         <v>36</v>
       </c>
@@ -1707,7 +1714,7 @@
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B83" s="9"/>
+      <c r="B83" s="10"/>
       <c r="C83" s="4" t="s">
         <v>37</v>
       </c>
@@ -1717,8 +1724,8 @@
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B84" s="8">
-        <v>44816</v>
+      <c r="B84" s="9">
+        <v>44848</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>16</v>
@@ -1729,7 +1736,7 @@
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B85" s="9"/>
+      <c r="B85" s="10"/>
       <c r="C85" s="4" t="s">
         <v>17</v>
       </c>
@@ -1739,7 +1746,7 @@
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B86" s="9"/>
+      <c r="B86" s="10"/>
       <c r="C86" s="4" t="s">
         <v>18</v>
       </c>
@@ -1749,7 +1756,7 @@
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B87" s="9"/>
+      <c r="B87" s="10"/>
       <c r="C87" s="4" t="s">
         <v>19</v>
       </c>
@@ -1759,8 +1766,8 @@
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="8">
-        <v>44817</v>
+      <c r="B88" s="9">
+        <v>44851</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>49</v>
@@ -1771,7 +1778,7 @@
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B89" s="9"/>
+      <c r="B89" s="10"/>
       <c r="C89" s="4" t="s">
         <v>50</v>
       </c>
@@ -1781,7 +1788,7 @@
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B90" s="9"/>
+      <c r="B90" s="10"/>
       <c r="C90" s="4" t="s">
         <v>51</v>
       </c>
@@ -1791,7 +1798,7 @@
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B91" s="9"/>
+      <c r="B91" s="10"/>
       <c r="C91" s="4" t="s">
         <v>52</v>
       </c>
@@ -1801,7 +1808,7 @@
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B92" s="9"/>
+      <c r="B92" s="10"/>
       <c r="C92" s="4" t="s">
         <v>53</v>
       </c>
@@ -1811,7 +1818,7 @@
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B93" s="9"/>
+      <c r="B93" s="10"/>
       <c r="C93" s="4" t="s">
         <v>54</v>
       </c>
@@ -1821,7 +1828,7 @@
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B94" s="9"/>
+      <c r="B94" s="10"/>
       <c r="C94" s="4" t="s">
         <v>55</v>
       </c>
@@ -1831,7 +1838,7 @@
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B95" s="9"/>
+      <c r="B95" s="10"/>
       <c r="C95" s="4" t="s">
         <v>56</v>
       </c>
@@ -1841,7 +1848,7 @@
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B96" s="9"/>
+      <c r="B96" s="10"/>
       <c r="C96" s="4" t="s">
         <v>57</v>
       </c>
@@ -1851,7 +1858,7 @@
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B97" s="9"/>
+      <c r="B97" s="10"/>
       <c r="C97" s="4" t="s">
         <v>58</v>
       </c>
@@ -1861,8 +1868,8 @@
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B98" s="8">
-        <v>44818</v>
+      <c r="B98" s="9">
+        <v>44852</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>72</v>
@@ -1873,7 +1880,7 @@
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B99" s="9"/>
+      <c r="B99" s="10"/>
       <c r="C99" s="4" t="s">
         <v>73</v>
       </c>
@@ -1883,7 +1890,7 @@
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B100" s="9"/>
+      <c r="B100" s="10"/>
       <c r="C100" s="4" t="s">
         <v>74</v>
       </c>
@@ -1893,7 +1900,7 @@
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B101" s="9"/>
+      <c r="B101" s="10"/>
       <c r="C101" s="4" t="s">
         <v>75</v>
       </c>
@@ -1903,8 +1910,8 @@
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B102" s="8">
-        <v>44819</v>
+      <c r="B102" s="9">
+        <v>44853</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>20</v>
@@ -1915,7 +1922,7 @@
       <c r="E102" s="1"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B103" s="9"/>
+      <c r="B103" s="10"/>
       <c r="C103" s="5" t="s">
         <v>21</v>
       </c>
@@ -1925,7 +1932,7 @@
       <c r="E103" s="1"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B104" s="9"/>
+      <c r="B104" s="10"/>
       <c r="C104" s="5" t="s">
         <v>68</v>
       </c>
@@ -1935,7 +1942,7 @@
       <c r="E104" s="1"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B105" s="9"/>
+      <c r="B105" s="10"/>
       <c r="C105" s="5" t="s">
         <v>69</v>
       </c>
@@ -1945,7 +1952,7 @@
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B106" s="9"/>
+      <c r="B106" s="10"/>
       <c r="C106" s="5" t="s">
         <v>70</v>
       </c>
@@ -1955,7 +1962,7 @@
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B107" s="9"/>
+      <c r="B107" s="10"/>
       <c r="C107" s="5" t="s">
         <v>71</v>
       </c>
@@ -1965,8 +1972,8 @@
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B108" s="8">
-        <v>44824</v>
+      <c r="B108" s="9">
+        <v>44854</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>64</v>
@@ -1977,7 +1984,7 @@
       <c r="E108" s="1"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B109" s="9"/>
+      <c r="B109" s="10"/>
       <c r="C109" s="5" t="s">
         <v>65</v>
       </c>
@@ -1987,7 +1994,7 @@
       <c r="E109" s="1"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B110" s="9"/>
+      <c r="B110" s="10"/>
       <c r="C110" s="5" t="s">
         <v>66</v>
       </c>
@@ -1997,7 +2004,7 @@
       <c r="E110" s="1"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B111" s="9"/>
+      <c r="B111" s="10"/>
       <c r="C111" s="5" t="s">
         <v>67</v>
       </c>
@@ -2007,7 +2014,7 @@
       <c r="E111" s="1"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B112" s="9"/>
+      <c r="B112" s="10"/>
       <c r="C112" s="5" t="s">
         <v>22</v>
       </c>
@@ -2017,7 +2024,7 @@
       <c r="E112" s="1"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B113" s="9"/>
+      <c r="B113" s="10"/>
       <c r="C113" s="5" t="s">
         <v>23</v>
       </c>
@@ -2027,12 +2034,8 @@
       <c r="E113" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B24:B28"/>
+  <mergeCells count="21">
+    <mergeCell ref="E54:E55"/>
     <mergeCell ref="B108:B113"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="B33:B38"/>
@@ -2048,6 +2051,11 @@
     <mergeCell ref="B84:B87"/>
     <mergeCell ref="B88:B97"/>
     <mergeCell ref="B98:B101"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B24:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
